--- a/metrics/MAPE/Macroalbuminuria.xlsx
+++ b/metrics/MAPE/Macroalbuminuria.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02969983033436174</v>
+        <v>0.02854883282563189</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02892154652163417</v>
+        <v>0.02860735970328097</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02999754309687852</v>
+        <v>0.02892922333732215</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02723668329414431</v>
+        <v>0.02614709936101864</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02614709936101864</v>
+        <v>0.02723668329414433</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02614709936101865</v>
+        <v>0.0272366832941443</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07263783454152806</v>
+        <v>0.07000369158291994</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07283256123875508</v>
+        <v>0.06587028744879429</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06749456952088605</v>
+        <v>0.07139799179251727</v>
       </c>
     </row>
   </sheetData>
